--- a/Assets/Databases/Database.xlsx
+++ b/Assets/Databases/Database.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\Unity_Projects\Kyeongil_Final\Assets\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111EF3F9-B107-4B65-8BA0-EA503872C5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="180">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,18 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stigmata(T)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stigmata(M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stigmata(B)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LeaderSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>별들의 색깔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천행· 우주를 그리는 별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -527,204 +510,228 @@
   </si>
   <si>
     <t>Anchor_of_the_Voyage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 출혈 서포터.
+특수 무기 스킬로 운석을 소환해 적에게 대량의 대미지를 가한다.
+필살기와 특수 무기 스킬은 파티원 캐릭터가 가하는 출혈 대미지를 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_Icon_Biologic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_Icon_Psychic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_Icon_Mecha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_Icon_Quantum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_Icon_Imaginary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_Icon_Stardust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trait_Icon_Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trait_Icon_FireDMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trait_Icon_IceDMG</t>
+  </si>
+  <si>
+    <t>Trait_Icon_LightningDMG</t>
+  </si>
+  <si>
+    <t>Trait_Icon_Freeze</t>
+  </si>
+  <si>
+    <t>Trait_Icon_Paralyze</t>
+  </si>
+  <si>
+    <t>Trait_Icon_Stun</t>
+  </si>
+  <si>
+    <t>Trait_Icon_Ignite</t>
+  </si>
+  <si>
+    <t>Trait_Icon_Bleed</t>
+  </si>
+  <si>
+    <t>Trait_Icon_HeavyATK</t>
+  </si>
+  <si>
+    <t>Trait_Icon_Weaken</t>
+  </si>
+  <si>
+    <t>Trait_Icon_Impair</t>
+  </si>
+  <si>
+    <t>Trait_Icon_TimeMastery</t>
+  </si>
+  <si>
+    <t>Trait_Icon_Gather</t>
+  </si>
+  <si>
+    <t>Trait_Icon_Heal</t>
+  </si>
+  <si>
+    <t>Trait_Icon_FastATK</t>
+  </si>
+  <si>
+    <t>Trait_Icon_Burst</t>
+  </si>
+  <si>
+    <t>Trait_Icon_Aerial</t>
+  </si>
+  <si>
+    <t>WeaponSkill_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anchor_of_the_Voyage_Skill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anchor_of_the_Voyage_Skill_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anchor_of_the_Voyage_Skill_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성위 필드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별의 방위선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하 비콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anchor_of_the_Voyage_Skill_01, Anchor_of_the_Voyage_Skill_02, Anchor_of_the_Voyage_Skill_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloodied_Casket_Skill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloodied_Casket_Skill_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloodied_Casket_Skill_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloodied_Casket_Skill_01, Bloodied_Casket_Skill_02, Bloodied_Casket_Skill_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한여름 밤의 약속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 달의 성루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바깥세상의 끝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SP 소모: 0][재사용 대기시간: 17초] 십자가[소환물]을 전개한다: 17초 동안 지속되는 [붉은 달의 경계선] 영역을 생성하고(동일 효과 동시 발동 불가), [붉은 달의 경계선] 영역 내 캐릭터가 가하는 뇌전 원소 대미지가 {50.0}% 증가한다. 캐릭터가 영역에서 출혈 대미지를 가할 경우 [식흔]을 획득하고 [식흔] 스택마다 출혈 대미지의 모든 대미지가 {2.0}% 증가한다. [식흔] 지속 시간: 10초, 최대 10스택, 발동 간격: 0.1초, 중복 발동 시 지속 시간을 갱신한다. 십자가가 사라지면 [식흔] 스택은 리셋된다. [월하의 서약·핏빛 사랑]이 장비 시 아래 효과를 획득한다: 대미지, 재사용 대기시간, SP 소모 등의 수치는 캐릭터 자신에 의해 결정된다. 월하의 서약·핏빛 사랑이 [광폭화] 상태에 진입 시 박쥐 [소환물]을 생성한다. 박쥐는 캐릭터를 따라 이동하며 [붉은 달의 경계선]의 모든 효과를 발동한다. 지속 시간: 17초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 자신이 가하는 뇌전 원소 대미지가 {30.0}% 증가한다. [붉은 달의 경계선]에서 적이 받는 출혈 대미지가 {10.0}% 증가한다. 월하의 서약·핏빛 사랑이 파티에 있을 경우 [붉은 달의 경계선]에 있는 적은 매초 출혈 게이지를 1pt 누적한다. 월하의 서약·핏빛 사랑이 장비 시 필살기 마지막 일격의 대미지 배율이 추가로 {300.0}% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분기 공격의 모든 대미지가 {20.0}% 증가한다. 월하의 서약·핏빛 사랑이 장비 시 분기 공격의 모든 대미지가 추가로 {30.0}% 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SP 소모: 0][재사용 대기시간: 17초] 십자가[소환물]을 전개한다: [위성]을 생성해 전장을 스캔하고 범위 내 적에게 공격력 300%의 물리 대미지를 가하며 2초마다 공격력 100%의 물리 대미지를 가한다. 지속 시간: 16초, 그 기간 자신이 가하는 출혈 대미지가 {25.0}% 증가한다.
+천행·우주를 그리는 별이 장비 시 [운석]이 추가로 공격력 {300}%의 물리 대미지를 가하고, 적에게 적중 시 자신의 HP를 300 회복한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티원이 가하는 출혈 대미지가 {15.0}% 증가한다(동일 효과 동시 발동 불가).
+천행·우주를 그리는 별이 장비 시 자신이 가하는 물리 대미지가 {30.0}% 증가하고, 파티원의 물리 대미지가 {35.0}% 증가한다(동일 효과 동시 발동 불가).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티원의 모든 대미지가 {15.0}% 증가한다(동일 효과 동시 발동 불가).
+천행·우주를 그리는 별이 장비 시 특수 무기 스킬을 발동하면 [비콘] 주변 적을 끌어당기고 공격력 {50.0}%의 물리 대미지를 가한다(출혈 대미지, 천행·우주를 그리는 별의 대미지로 간주한다).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar_Griseo_C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stigmata_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stigmata_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stigmata_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar_Theresa_C7_BW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>뇌전 딜러 &amp; 서포터 능력을 모두 갖추고 있다.
 체인톱으로 적을 공격한다.
 [광폭화] 상태에서 대량의 출혈 대미지를 가한다. 필살기는 뇌전 원소 속성의 파티원에게 모든 원소 관통을 제공한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 출혈 서포터.
-특수 무기 스킬로 운석을 소환해 적에게 대량의 대미지를 가한다.
-필살기와 특수 무기 스킬은 파티원 캐릭터가 가하는 출혈 대미지를 증가시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type_Icon_Biologic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type_Icon_Psychic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type_Icon_Mecha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type_Icon_Quantum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type_Icon_Imaginary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type_Icon_Stardust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trait_Icon_Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trait_Icon_FireDMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trait_Icon_IceDMG</t>
-  </si>
-  <si>
-    <t>Trait_Icon_LightningDMG</t>
-  </si>
-  <si>
-    <t>Trait_Icon_Freeze</t>
-  </si>
-  <si>
-    <t>Trait_Icon_Paralyze</t>
-  </si>
-  <si>
-    <t>Trait_Icon_Stun</t>
-  </si>
-  <si>
-    <t>Trait_Icon_Ignite</t>
-  </si>
-  <si>
-    <t>Trait_Icon_Bleed</t>
-  </si>
-  <si>
-    <t>Trait_Icon_HeavyATK</t>
-  </si>
-  <si>
-    <t>Trait_Icon_Weaken</t>
-  </si>
-  <si>
-    <t>Trait_Icon_Impair</t>
-  </si>
-  <si>
-    <t>Trait_Icon_TimeMastery</t>
-  </si>
-  <si>
-    <t>Trait_Icon_Gather</t>
-  </si>
-  <si>
-    <t>Trait_Icon_Heal</t>
-  </si>
-  <si>
-    <t>Trait_Icon_FastATK</t>
-  </si>
-  <si>
-    <t>Trait_Icon_Burst</t>
-  </si>
-  <si>
-    <t>Trait_Icon_Aerial</t>
-  </si>
-  <si>
-    <t>WeaponSkill_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anchor_of_the_Voyage_Skill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anchor_of_the_Voyage_Skill_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anchor_of_the_Voyage_Skill_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성위 필드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별의 방위선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하 비콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cooldown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anchor_of_the_Voyage_Skill_01, Anchor_of_the_Voyage_Skill_02, Anchor_of_the_Voyage_Skill_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bloodied_Casket_Skill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bloodied_Casket_Skill_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bloodied_Casket_Skill_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bloodied_Casket_Skill_01, Bloodied_Casket_Skill_02, Bloodied_Casket_Skill_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한여름 밤의 약속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은 달의 성루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바깥세상의 끝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[SP 소모: 0][재사용 대기시간: 17초] 십자가[소환물]을 전개한다: 17초 동안 지속되는 [붉은 달의 경계선] 영역을 생성하고(동일 효과 동시 발동 불가), [붉은 달의 경계선] 영역 내 캐릭터가 가하는 뇌전 원소 대미지가 {50.0}% 증가한다. 캐릭터가 영역에서 출혈 대미지를 가할 경우 [식흔]을 획득하고 [식흔] 스택마다 출혈 대미지의 모든 대미지가 {2.0}% 증가한다. [식흔] 지속 시간: 10초, 최대 10스택, 발동 간격: 0.1초, 중복 발동 시 지속 시간을 갱신한다. 십자가가 사라지면 [식흔] 스택은 리셋된다. [월하의 서약·핏빛 사랑]이 장비 시 아래 효과를 획득한다: 대미지, 재사용 대기시간, SP 소모 등의 수치는 캐릭터 자신에 의해 결정된다. 월하의 서약·핏빛 사랑이 [광폭화] 상태에 진입 시 박쥐 [소환물]을 생성한다. 박쥐는 캐릭터를 따라 이동하며 [붉은 달의 경계선]의 모든 효과를 발동한다. 지속 시간: 17초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 자신이 가하는 뇌전 원소 대미지가 {30.0}% 증가한다. [붉은 달의 경계선]에서 적이 받는 출혈 대미지가 {10.0}% 증가한다. 월하의 서약·핏빛 사랑이 파티에 있을 경우 [붉은 달의 경계선]에 있는 적은 매초 출혈 게이지를 1pt 누적한다. 월하의 서약·핏빛 사랑이 장비 시 필살기 마지막 일격의 대미지 배율이 추가로 {300.0}% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분기 공격의 모든 대미지가 {20.0}% 증가한다. 월하의 서약·핏빛 사랑이 장비 시 분기 공격의 모든 대미지가 추가로 {30.0}% 증가한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[SP 소모: 0][재사용 대기시간: 17초] 십자가[소환물]을 전개한다: [위성]을 생성해 전장을 스캔하고 범위 내 적에게 공격력 300%의 물리 대미지를 가하며 2초마다 공격력 100%의 물리 대미지를 가한다. 지속 시간: 16초, 그 기간 자신이 가하는 출혈 대미지가 {25.0}% 증가한다.
-천행·우주를 그리는 별이 장비 시 [운석]이 추가로 공격력 {300}%의 물리 대미지를 가하고, 적에게 적중 시 자신의 HP를 300 회복한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티원이 가하는 출혈 대미지가 {15.0}% 증가한다(동일 효과 동시 발동 불가).
-천행·우주를 그리는 별이 장비 시 자신이 가하는 물리 대미지가 {30.0}% 증가하고, 파티원의 물리 대미지가 {35.0}% 증가한다(동일 효과 동시 발동 불가).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티원의 모든 대미지가 {15.0}% 증가한다(동일 효과 동시 발동 불가).
-천행·우주를 그리는 별이 장비 시 특수 무기 스킬을 발동하면 [비콘] 주변 적을 끌어당기고 공격력 {50.0}%의 물리 대미지를 가한다(출혈 대미지, 천행·우주를 그리는 별의 대미지로 간주한다).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -761,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,16 +777,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1060,10 +1058,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1087,13 +1087,15 @@
     <col min="20" max="20" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="100.625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="54.375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="21.875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="21.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -1129,60 +1131,60 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2">
         <v>1804</v>
@@ -1200,57 +1202,60 @@
         <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="W2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2">
         <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2">
         <v>2138</v>
@@ -1268,48 +1273,48 @@
         <v>75</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>129</v>
+      <c r="W3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>0</v>
@@ -1322,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967C1C18-04C3-43A8-AB13-6B00C572B1C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1338,119 +1343,119 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +1465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734DC50C-BDF7-4E6D-AFF8-AB1298D39E71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1474,211 +1479,211 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBF8ABD-7B72-42FE-9CFA-172FC7BD9CF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1709,7 +1714,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1727,15 +1732,15 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
@@ -1750,15 +1755,15 @@
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
@@ -1773,12 +1778,12 @@
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -1787,18 +1792,18 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -1806,16 +1811,16 @@
       <c r="D11" s="2">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>172</v>
+      <c r="E11" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -1823,16 +1828,16 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>173</v>
+      <c r="E12" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1840,16 +1845,16 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>174</v>
+      <c r="E13" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1857,16 +1862,16 @@
       <c r="D14" s="2">
         <v>17</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>175</v>
+      <c r="E14" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -1874,16 +1879,16 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>176</v>
+      <c r="E15" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -1891,8 +1896,8 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>177</v>
+      <c r="E16" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1902,11 +1907,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1673E008-A560-4B61-864A-36BC348561E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="N1" activeCellId="2" sqref="K1 M1:M1048576 N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1920,21 +1925,20 @@
     <col min="8" max="8" width="4.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="222" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.625" customWidth="1"/>
     <col min="12" max="12" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="133.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="162.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1958,27 +1962,27 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -2002,25 +2006,25 @@
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -2044,25 +2048,25 @@
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -2086,18 +2090,19 @@
         <v>12</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>